--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga10</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga10</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H2">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I2">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J2">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N2">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O2">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P2">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q2">
-        <v>4.505559142735335</v>
+        <v>0.171890022888</v>
       </c>
       <c r="R2">
-        <v>27.033354856412</v>
+        <v>0.687560091552</v>
       </c>
       <c r="S2">
-        <v>0.2163016914469099</v>
+        <v>0.01001934087714939</v>
       </c>
       <c r="T2">
-        <v>0.1796234732444774</v>
+        <v>0.005899836037827768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H3">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I3">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J3">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.603579</v>
       </c>
       <c r="O3">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P3">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q3">
-        <v>2.867252348282445</v>
+        <v>0.164642663088</v>
       </c>
       <c r="R3">
-        <v>25.805271134542</v>
+        <v>0.987855978528</v>
       </c>
       <c r="S3">
-        <v>0.1376502922480999</v>
+        <v>0.009596897694726507</v>
       </c>
       <c r="T3">
-        <v>0.1714634551953313</v>
+        <v>0.008476623896461744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H4">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I4">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J4">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N4">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O4">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P4">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q4">
-        <v>1.131504901406445</v>
+        <v>0.03589721136</v>
       </c>
       <c r="R4">
-        <v>10.183544112658</v>
+        <v>0.21538326816</v>
       </c>
       <c r="S4">
-        <v>0.05432098798421208</v>
+        <v>0.002092421602557297</v>
       </c>
       <c r="T4">
-        <v>0.0676646895351989</v>
+        <v>0.00184816713920544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H5">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I5">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J5">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N5">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O5">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P5">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q5">
-        <v>7.372192831561335</v>
+        <v>0.474596751096</v>
       </c>
       <c r="R5">
-        <v>44.23315698936801</v>
+        <v>1.898387004384</v>
       </c>
       <c r="S5">
-        <v>0.3539222832554818</v>
+        <v>0.02766388966924976</v>
       </c>
       <c r="T5">
-        <v>0.2939077792305151</v>
+        <v>0.01628973554431723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H6">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I6">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J6">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N6">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O6">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P6">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q6">
-        <v>2.637474001206667</v>
+        <v>0.043973698896</v>
       </c>
       <c r="R6">
-        <v>23.73726601086</v>
+        <v>0.263842193376</v>
       </c>
       <c r="S6">
-        <v>0.1266191541460725</v>
+        <v>0.002563194020604847</v>
       </c>
       <c r="T6">
-        <v>0.157722568613693</v>
+        <v>0.002263984922780412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.364099333333335</v>
+        <v>0.308016</v>
       </c>
       <c r="H7">
-        <v>16.092298</v>
+        <v>0.616032</v>
       </c>
       <c r="I7">
-        <v>0.9793866719761442</v>
+        <v>0.05430355024515839</v>
       </c>
       <c r="J7">
-        <v>0.9832028896782715</v>
+        <v>0.03686975299147192</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N7">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O7">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P7">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q7">
-        <v>1.886618104725334</v>
+        <v>0.04062166344</v>
       </c>
       <c r="R7">
-        <v>16.97956294252801</v>
+        <v>0.24372998064</v>
       </c>
       <c r="S7">
-        <v>0.09057226289536791</v>
+        <v>0.002367806380870583</v>
       </c>
       <c r="T7">
-        <v>0.1128209238590559</v>
+        <v>0.002091405450879319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H8">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I8">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J8">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.839947</v>
+        <v>0.5580555</v>
       </c>
       <c r="N8">
-        <v>1.679894</v>
+        <v>1.116111</v>
       </c>
       <c r="O8">
-        <v>0.2208542321802992</v>
+        <v>0.1845061848058949</v>
       </c>
       <c r="P8">
-        <v>0.1826921738434421</v>
+        <v>0.1600183228564731</v>
       </c>
       <c r="Q8">
-        <v>0.0535680398985</v>
+        <v>2.993465135513</v>
       </c>
       <c r="R8">
-        <v>0.214272159594</v>
+        <v>17.960790813078</v>
       </c>
       <c r="S8">
-        <v>0.002571680288832409</v>
+        <v>0.1744868439287455</v>
       </c>
       <c r="T8">
-        <v>0.001423734114034325</v>
+        <v>0.1541184868186453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H9">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I9">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J9">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.603579</v>
       </c>
       <c r="O9">
-        <v>0.1405474427892284</v>
+        <v>0.1767268926506725</v>
       </c>
       <c r="P9">
-        <v>0.1743927494471038</v>
+        <v>0.2299072602526633</v>
       </c>
       <c r="Q9">
-        <v>0.0340896841715</v>
+        <v>2.867252348282444</v>
       </c>
       <c r="R9">
-        <v>0.204538105029</v>
+        <v>25.805271134542</v>
       </c>
       <c r="S9">
-        <v>0.001636568539795005</v>
+        <v>0.167129994955946</v>
       </c>
       <c r="T9">
-        <v>0.001359056063566539</v>
+        <v>0.2214306363562015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H10">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I10">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J10">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2109403333333333</v>
+        <v>0.1165433333333333</v>
       </c>
       <c r="N10">
-        <v>0.632821</v>
+        <v>0.34963</v>
       </c>
       <c r="O10">
-        <v>0.05546429162100669</v>
+        <v>0.03853194852106109</v>
       </c>
       <c r="P10">
-        <v>0.06882067805693744</v>
+        <v>0.05012691947333974</v>
       </c>
       <c r="Q10">
-        <v>0.0134528252285</v>
+        <v>0.6251500166377777</v>
       </c>
       <c r="R10">
-        <v>0.08071695137099999</v>
+        <v>5.626350149739999</v>
       </c>
       <c r="S10">
-        <v>0.0006458396748283775</v>
+        <v>0.03643952691850379</v>
       </c>
       <c r="T10">
-        <v>0.0005363248191715162</v>
+        <v>0.0482787523341343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H11">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I11">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J11">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.374358</v>
+        <v>1.5408185</v>
       </c>
       <c r="N11">
-        <v>2.748716</v>
+        <v>3.081637</v>
       </c>
       <c r="O11">
-        <v>0.3613713494194892</v>
+        <v>0.5094305905296905</v>
       </c>
       <c r="P11">
-        <v>0.2989289212999456</v>
+        <v>0.4418184073021887</v>
       </c>
       <c r="Q11">
-        <v>0.087650368629</v>
+        <v>8.265103488637665</v>
       </c>
       <c r="R11">
-        <v>0.350601474516</v>
+        <v>49.590620931826</v>
       </c>
       <c r="S11">
-        <v>0.004207895710561656</v>
+        <v>0.4817667008604408</v>
       </c>
       <c r="T11">
-        <v>0.002329575996456903</v>
+        <v>0.4255286717578715</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H12">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I12">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J12">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.49169</v>
+        <v>0.1427643333333333</v>
       </c>
       <c r="N12">
-        <v>1.47507</v>
+        <v>0.428293</v>
       </c>
       <c r="O12">
-        <v>0.1292841303329035</v>
+        <v>0.0472012236590991</v>
       </c>
       <c r="P12">
-        <v>0.1604171125507003</v>
+        <v>0.06140493871233903</v>
       </c>
       <c r="Q12">
-        <v>0.031357775595</v>
+        <v>0.765802065257111</v>
       </c>
       <c r="R12">
-        <v>0.18814665357</v>
+        <v>6.892218587314</v>
       </c>
       <c r="S12">
-        <v>0.001505415795539489</v>
+        <v>0.04463802963849425</v>
       </c>
       <c r="T12">
-        <v>0.001250142854006628</v>
+        <v>0.05914095378955862</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0637755</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H13">
-        <v>0.127551</v>
+        <v>16.092298</v>
       </c>
       <c r="I13">
-        <v>0.01164424273623591</v>
+        <v>0.9456964497548416</v>
       </c>
       <c r="J13">
-        <v>0.007793076649547081</v>
+        <v>0.963130247008528</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.351712</v>
+        <v>0.1318816666666667</v>
       </c>
       <c r="N13">
-        <v>1.055136</v>
+        <v>0.395645</v>
       </c>
       <c r="O13">
-        <v>0.0924785536570729</v>
+        <v>0.04360315983358183</v>
       </c>
       <c r="P13">
-        <v>0.1147483648018709</v>
+        <v>0.05672415140299603</v>
       </c>
       <c r="Q13">
-        <v>0.022430608656</v>
+        <v>0.7074263602455555</v>
       </c>
       <c r="R13">
-        <v>0.134583651936</v>
+        <v>6.36683724221</v>
       </c>
       <c r="S13">
-        <v>0.001076842726678974</v>
+        <v>0.04123535345271125</v>
       </c>
       <c r="T13">
-        <v>0.0008942428023111703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.147371</v>
-      </c>
-      <c r="I14">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J14">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.839947</v>
-      </c>
-      <c r="N14">
-        <v>1.679894</v>
-      </c>
-      <c r="O14">
-        <v>0.2208542321802992</v>
-      </c>
-      <c r="P14">
-        <v>0.1826921738434421</v>
-      </c>
-      <c r="Q14">
-        <v>0.04126127644566667</v>
-      </c>
-      <c r="R14">
-        <v>0.247567658674</v>
-      </c>
-      <c r="S14">
-        <v>0.001980860444556927</v>
-      </c>
-      <c r="T14">
-        <v>0.001644966484930361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.147371</v>
-      </c>
-      <c r="I15">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J15">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.5345263333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.603579</v>
-      </c>
-      <c r="O15">
-        <v>0.1405474427892284</v>
-      </c>
-      <c r="P15">
-        <v>0.1743927494471038</v>
-      </c>
-      <c r="Q15">
-        <v>0.02625789342322222</v>
-      </c>
-      <c r="R15">
-        <v>0.236321040809</v>
-      </c>
-      <c r="S15">
-        <v>0.001260582001333478</v>
-      </c>
-      <c r="T15">
-        <v>0.001570238188206008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.147371</v>
-      </c>
-      <c r="I16">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J16">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2109403333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.632821</v>
-      </c>
-      <c r="O16">
-        <v>0.05546429162100669</v>
-      </c>
-      <c r="P16">
-        <v>0.06882067805693744</v>
-      </c>
-      <c r="Q16">
-        <v>0.01036216262122222</v>
-      </c>
-      <c r="R16">
-        <v>0.093259463591</v>
-      </c>
-      <c r="S16">
-        <v>0.0004974639619662348</v>
-      </c>
-      <c r="T16">
-        <v>0.0006196637025670166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.147371</v>
-      </c>
-      <c r="I17">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J17">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.374358</v>
-      </c>
-      <c r="N17">
-        <v>2.748716</v>
-      </c>
-      <c r="O17">
-        <v>0.3613713494194892</v>
-      </c>
-      <c r="P17">
-        <v>0.2989289212999456</v>
-      </c>
-      <c r="Q17">
-        <v>0.06751350427266667</v>
-      </c>
-      <c r="R17">
-        <v>0.405081025636</v>
-      </c>
-      <c r="S17">
-        <v>0.003241170453445717</v>
-      </c>
-      <c r="T17">
-        <v>0.002691566072973558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.147371</v>
-      </c>
-      <c r="I18">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J18">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.49169</v>
-      </c>
-      <c r="N18">
-        <v>1.47507</v>
-      </c>
-      <c r="O18">
-        <v>0.1292841303329035</v>
-      </c>
-      <c r="P18">
-        <v>0.1604171125507003</v>
-      </c>
-      <c r="Q18">
-        <v>0.02415361566333333</v>
-      </c>
-      <c r="R18">
-        <v>0.21738254097</v>
-      </c>
-      <c r="S18">
-        <v>0.001159560391291588</v>
-      </c>
-      <c r="T18">
-        <v>0.00144440108300061</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.04912366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.147371</v>
-      </c>
-      <c r="I19">
-        <v>0.008969085287619973</v>
-      </c>
-      <c r="J19">
-        <v>0.009004033672181347</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.351712</v>
-      </c>
-      <c r="N19">
-        <v>1.055136</v>
-      </c>
-      <c r="O19">
-        <v>0.0924785536570729</v>
-      </c>
-      <c r="P19">
-        <v>0.1147483648018709</v>
-      </c>
-      <c r="Q19">
-        <v>0.01727738305066667</v>
-      </c>
-      <c r="R19">
-        <v>0.155496447456</v>
-      </c>
-      <c r="S19">
-        <v>0.0008294480350260268</v>
-      </c>
-      <c r="T19">
-        <v>0.001033198140503795</v>
+        <v>0.05463274595211671</v>
       </c>
     </row>
   </sheetData>
